--- a/Pourcentage_debit_departement.xlsx
+++ b/Pourcentage_debit_departement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33749\PycharmProjects\ProjetPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF20A4A1-996A-4825-816A-DFA1E8FD29CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7F9A7E-F264-4201-ACAD-61A105400E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{70EFB8E3-DB3F-4B4A-B2F9-D0CD943B4394}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{70EFB8E3-DB3F-4B4A-B2F9-D0CD943B4394}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -241,77 +241,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD3DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA8DFF1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF84AAD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8F83B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2E1D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD3DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA8DFF1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF84AAD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8F83B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2E1D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -711,7 +641,7 @@
         <v>0.157</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="F2:H15" si="0">IFERROR(N2/$B2,"NC")</f>
+        <f t="shared" ref="G2:H15" si="0">IFERROR(N2/$B2,"NC")</f>
         <v>0</v>
       </c>
       <c r="H2" s="6">
